--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.019285333333333</v>
+        <v>11.31080466666667</v>
       </c>
       <c r="H2">
-        <v>21.057856</v>
+        <v>33.932414</v>
       </c>
       <c r="I2">
-        <v>0.04775214676711108</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="J2">
-        <v>0.04775214676711107</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N2">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O2">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P2">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q2">
-        <v>22.47198696063289</v>
+        <v>110.5220536254585</v>
       </c>
       <c r="R2">
-        <v>202.247882645696</v>
+        <v>994.6984826291261</v>
       </c>
       <c r="S2">
-        <v>0.01090648416009663</v>
+        <v>0.05401515963539411</v>
       </c>
       <c r="T2">
-        <v>0.01090648416009663</v>
+        <v>0.05401515963539411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.019285333333333</v>
+        <v>11.31080466666667</v>
       </c>
       <c r="H3">
-        <v>21.057856</v>
+        <v>33.932414</v>
       </c>
       <c r="I3">
-        <v>0.04775214676711108</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="J3">
-        <v>0.04775214676711107</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.274391</v>
       </c>
       <c r="O3">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P3">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q3">
-        <v>19.36010379618844</v>
+        <v>31.19667344554156</v>
       </c>
       <c r="R3">
-        <v>174.240934165696</v>
+        <v>280.770061009874</v>
       </c>
       <c r="S3">
-        <v>0.009396172477353965</v>
+        <v>0.01524667015295155</v>
       </c>
       <c r="T3">
-        <v>0.009396172477353963</v>
+        <v>0.01524667015295154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.019285333333333</v>
+        <v>11.31080466666667</v>
       </c>
       <c r="H4">
-        <v>21.057856</v>
+        <v>33.932414</v>
       </c>
       <c r="I4">
-        <v>0.04775214676711108</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="J4">
-        <v>0.04775214676711107</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N4">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O4">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P4">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q4">
-        <v>53.44615113435734</v>
+        <v>21.37013666179467</v>
       </c>
       <c r="R4">
-        <v>481.0153602092161</v>
+        <v>192.331229956152</v>
       </c>
       <c r="S4">
-        <v>0.02593938852786617</v>
+        <v>0.01044417204849272</v>
       </c>
       <c r="T4">
-        <v>0.02593938852786617</v>
+        <v>0.01044417204849272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.019285333333333</v>
+        <v>11.31080466666667</v>
       </c>
       <c r="H5">
-        <v>21.057856</v>
+        <v>33.932414</v>
       </c>
       <c r="I5">
-        <v>0.04775214676711108</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="J5">
-        <v>0.04775214676711107</v>
+        <v>0.08369050333131593</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N5">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O5">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P5">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q5">
-        <v>3.111450308515556</v>
+        <v>8.152809152392223</v>
       </c>
       <c r="R5">
-        <v>28.00305277664</v>
+        <v>73.37528237153001</v>
       </c>
       <c r="S5">
-        <v>0.001510101601794315</v>
+        <v>0.003984501494477558</v>
       </c>
       <c r="T5">
-        <v>0.001510101601794315</v>
+        <v>0.003984501494477558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>304.520523</v>
       </c>
       <c r="I6">
-        <v>0.6905502966633177</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="J6">
-        <v>0.6905502966633175</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N6">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O6">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P6">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q6">
-        <v>324.9704633796103</v>
+        <v>991.8608671065564</v>
       </c>
       <c r="R6">
-        <v>2924.734170416493</v>
+        <v>8926.747803959008</v>
       </c>
       <c r="S6">
-        <v>0.1577201525418277</v>
+        <v>0.4847496161663801</v>
       </c>
       <c r="T6">
-        <v>0.1577201525418276</v>
+        <v>0.4847496161663801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>304.520523</v>
       </c>
       <c r="I7">
-        <v>0.6905502966633177</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="J7">
-        <v>0.6905502966633175</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.274391</v>
       </c>
       <c r="O7">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P7">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q7">
         <v>279.9690972029437</v>
@@ -883,10 +883,10 @@
         <v>2519.721874826493</v>
       </c>
       <c r="S7">
-        <v>0.1358793296431524</v>
+        <v>0.1368285783907179</v>
       </c>
       <c r="T7">
-        <v>0.1358793296431524</v>
+        <v>0.1368285783907179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>304.520523</v>
       </c>
       <c r="I8">
-        <v>0.6905502966633177</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="J8">
-        <v>0.6905502966633175</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N8">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O8">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P8">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q8">
-        <v>772.8920691532671</v>
+        <v>191.782559084396</v>
       </c>
       <c r="R8">
-        <v>6956.028622379404</v>
+        <v>1726.043031759564</v>
       </c>
       <c r="S8">
-        <v>0.3751130295888626</v>
+        <v>0.09372939792933642</v>
       </c>
       <c r="T8">
-        <v>0.3751130295888624</v>
+        <v>0.09372939792933639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>304.520523</v>
       </c>
       <c r="I9">
-        <v>0.6905502966633177</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="J9">
-        <v>0.6905502966633175</v>
+        <v>0.7510658052381882</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N9">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O9">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P9">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q9">
-        <v>44.99510658813833</v>
+        <v>73.16596181473167</v>
       </c>
       <c r="R9">
-        <v>404.955959293245</v>
+        <v>658.493656332585</v>
       </c>
       <c r="S9">
-        <v>0.0218377848894751</v>
+        <v>0.03575821275175376</v>
       </c>
       <c r="T9">
-        <v>0.02183778488947509</v>
+        <v>0.03575821275175375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.599121999999999</v>
+        <v>7.161644</v>
       </c>
       <c r="H10">
-        <v>28.797366</v>
+        <v>21.484932</v>
       </c>
       <c r="I10">
-        <v>0.06530275673545372</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="J10">
-        <v>0.0653027567354537</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N10">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O10">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P10">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q10">
-        <v>30.73124031490067</v>
+        <v>69.97907094506533</v>
       </c>
       <c r="R10">
-        <v>276.581162834106</v>
+        <v>629.811638505588</v>
       </c>
       <c r="S10">
-        <v>0.01491500445874002</v>
+        <v>0.03420069175554639</v>
       </c>
       <c r="T10">
-        <v>0.01491500445874002</v>
+        <v>0.03420069175554639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.599121999999999</v>
+        <v>7.161644</v>
       </c>
       <c r="H11">
-        <v>28.797366</v>
+        <v>21.484932</v>
       </c>
       <c r="I11">
-        <v>0.06530275673545372</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="J11">
-        <v>0.0653027567354537</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.274391</v>
       </c>
       <c r="O11">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P11">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q11">
-        <v>26.47562956156733</v>
+        <v>19.75274755293467</v>
       </c>
       <c r="R11">
-        <v>238.280666054106</v>
+        <v>177.774727976412</v>
       </c>
       <c r="S11">
-        <v>0.0128495995902664</v>
+        <v>0.00965370962002861</v>
       </c>
       <c r="T11">
-        <v>0.01284959959026639</v>
+        <v>0.00965370962002861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.599121999999999</v>
+        <v>7.161644</v>
       </c>
       <c r="H12">
-        <v>28.797366</v>
+        <v>21.484932</v>
       </c>
       <c r="I12">
-        <v>0.06530275673545372</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="J12">
-        <v>0.0653027567354537</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N12">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O12">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P12">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q12">
-        <v>73.08950994381401</v>
+        <v>13.530895061264</v>
       </c>
       <c r="R12">
-        <v>657.8055894943261</v>
+        <v>121.778055551376</v>
       </c>
       <c r="S12">
-        <v>0.03547303511113208</v>
+        <v>0.006612919618927402</v>
       </c>
       <c r="T12">
-        <v>0.03547303511113208</v>
+        <v>0.006612919618927401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.599121999999999</v>
+        <v>7.161644</v>
       </c>
       <c r="H13">
-        <v>28.797366</v>
+        <v>21.484932</v>
       </c>
       <c r="I13">
-        <v>0.06530275673545372</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="J13">
-        <v>0.0653027567354537</v>
+        <v>0.05299018139761869</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N13">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O13">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P13">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q13">
-        <v>4.255018807476667</v>
+        <v>5.162101059126666</v>
       </c>
       <c r="R13">
-        <v>38.29516926729</v>
+        <v>46.45890953214001</v>
       </c>
       <c r="S13">
-        <v>0.002065117575315224</v>
+        <v>0.002522860403116286</v>
       </c>
       <c r="T13">
-        <v>0.002065117575315224</v>
+        <v>0.002522860403116286</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.868883</v>
+        <v>15.17110633333333</v>
       </c>
       <c r="H14">
-        <v>86.606649</v>
+        <v>45.513319</v>
       </c>
       <c r="I14">
-        <v>0.1963947998341177</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="J14">
-        <v>0.1963947998341176</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N14">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O14">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P14">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q14">
-        <v>92.42268002175101</v>
+        <v>148.2424882353079</v>
       </c>
       <c r="R14">
-        <v>831.804120195759</v>
+        <v>1334.182394117771</v>
       </c>
       <c r="S14">
-        <v>0.04485613566155779</v>
+        <v>0.07245017084023599</v>
       </c>
       <c r="T14">
-        <v>0.04485613566155778</v>
+        <v>0.07245017084023599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.868883</v>
+        <v>15.17110633333333</v>
       </c>
       <c r="H15">
-        <v>86.606649</v>
+        <v>45.513319</v>
       </c>
       <c r="I15">
-        <v>0.1963947998341177</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="J15">
-        <v>0.1963947998341176</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.274391</v>
       </c>
       <c r="O15">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P15">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q15">
-        <v>79.62414189175099</v>
+        <v>41.84388856819211</v>
       </c>
       <c r="R15">
-        <v>716.617277025759</v>
+        <v>376.5949971137289</v>
       </c>
       <c r="S15">
-        <v>0.03864453302794241</v>
+        <v>0.02045025627587422</v>
       </c>
       <c r="T15">
-        <v>0.0386445330279424</v>
+        <v>0.02045025627587422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.868883</v>
+        <v>15.17110633333333</v>
       </c>
       <c r="H16">
-        <v>86.606649</v>
+        <v>45.513319</v>
       </c>
       <c r="I16">
-        <v>0.1963947998341177</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="J16">
-        <v>0.1963947998341176</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N16">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O16">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P16">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q16">
-        <v>219.813073643121</v>
+        <v>28.66362077752133</v>
       </c>
       <c r="R16">
-        <v>1978.317662788089</v>
+        <v>257.972586997692</v>
       </c>
       <c r="S16">
-        <v>0.1066833925309173</v>
+        <v>0.01400869782308835</v>
       </c>
       <c r="T16">
-        <v>0.1066833925309173</v>
+        <v>0.01400869782308835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.868883</v>
+        <v>15.17110633333333</v>
       </c>
       <c r="H17">
-        <v>86.606649</v>
+        <v>45.513319</v>
       </c>
       <c r="I17">
-        <v>0.1963947998341177</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="J17">
-        <v>0.1963947998341176</v>
+        <v>0.1122535100328772</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N17">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O17">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P17">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q17">
-        <v>12.796757882215</v>
+        <v>10.93530815988944</v>
       </c>
       <c r="R17">
-        <v>115.170820939935</v>
+        <v>98.41777343900499</v>
       </c>
       <c r="S17">
-        <v>0.00621073861370018</v>
+        <v>0.005344385093678682</v>
       </c>
       <c r="T17">
-        <v>0.006210738613700179</v>
+        <v>0.005344385093678681</v>
       </c>
     </row>
   </sheetData>
